--- a/data/trans_dic/P15D$nada-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15D$nada-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,04; 46,35</t>
+          <t>11,87; 48,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,71; 30,54</t>
+          <t>10,49; 30,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,8; 31,49</t>
+          <t>8,64; 31,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 30,11</t>
+          <t>8,52; 31,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,84</t>
+          <t>0,0; 33,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,86; 39,13</t>
+          <t>14,47; 38,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 18,68</t>
+          <t>2,0; 19,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,31; 26,99</t>
+          <t>10,18; 26,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,28; 35,01</t>
+          <t>9,45; 33,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,74; 31,42</t>
+          <t>15,5; 30,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,21; 20,75</t>
+          <t>6,99; 20,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,5; 24,94</t>
+          <t>11,65; 25,15</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,95; 30,17</t>
+          <t>5,05; 28,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,0; 34,87</t>
+          <t>13,83; 33,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,04; 24,5</t>
+          <t>6,1; 25,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,58; 35,28</t>
+          <t>11,42; 34,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,32; 47,73</t>
+          <t>12,25; 44,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,19; 36,33</t>
+          <t>14,53; 35,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,84; 33,41</t>
+          <t>10,27; 33,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,66; 37,03</t>
+          <t>14,37; 38,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,31; 30,92</t>
+          <t>11,5; 30,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,15; 31,28</t>
+          <t>17,01; 30,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,94; 23,42</t>
+          <t>9,89; 23,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,3; 30,8</t>
+          <t>14,99; 31,42</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,55; 56,98</t>
+          <t>19,57; 58,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,87; 30,56</t>
+          <t>9,59; 29,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 32,65</t>
+          <t>5,8; 33,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 32,62</t>
+          <t>4,52; 34,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 30,1</t>
+          <t>3,8; 29,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,35; 36,2</t>
+          <t>13,87; 36,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,31; 46,27</t>
+          <t>13,06; 45,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,68; 27,91</t>
+          <t>8,58; 28,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 38,99</t>
+          <t>13,71; 38,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,13; 29,53</t>
+          <t>14,31; 30,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,48; 33,59</t>
+          <t>12,29; 34,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 25,58</t>
+          <t>9,14; 25,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,52; 51,39</t>
+          <t>19,42; 53,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,18; 47,23</t>
+          <t>26,14; 45,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,52; 31,56</t>
+          <t>9,96; 31,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,18; 22,26</t>
+          <t>5,83; 22,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,56</t>
+          <t>3,8; 30,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,13; 50,28</t>
+          <t>26,79; 50,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 24,73</t>
+          <t>2,14; 20,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,85; 27,45</t>
+          <t>13,59; 27,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,88; 38,93</t>
+          <t>14,97; 38,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,38; 45,1</t>
+          <t>29,21; 44,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,85; 20,44</t>
+          <t>7,19; 21,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,38; 22,64</t>
+          <t>11,67; 22,26</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,72; 34,58</t>
+          <t>19,7; 36,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,97; 30,39</t>
+          <t>20,5; 30,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,67; 22,43</t>
+          <t>11,06; 22,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,79; 23,29</t>
+          <t>11,56; 23,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,6; 25,71</t>
+          <t>10,23; 24,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,94; 34,6</t>
+          <t>22,3; 34,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,54; 19,95</t>
+          <t>9,28; 20,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,12; 24,05</t>
+          <t>15,21; 24,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,71; 28,17</t>
+          <t>17,24; 28,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,87; 30,76</t>
+          <t>23,1; 30,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,7; 19,02</t>
+          <t>11,93; 19,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,93; 21,91</t>
+          <t>14,66; 22,03</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tuvo consecuencias el último accidente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5919</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11262</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7545</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7549</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1717</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13582</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7603</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7636</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24844</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11386</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15153</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2705; 11032</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6189; 17899</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3596; 13220</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3823; 14067</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5306</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7596; 20347</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>976; 9448</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4402; 11559</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3653; 12992</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17278; 34251</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6313; 18808</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10270; 22165</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6352</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18019</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7914</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13882</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8064</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17433</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9283</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13194</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14416</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>35452</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17197</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>27076</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2161; 12256</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10940; 26877</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3690; 15593</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7655; 23261</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3693; 13404</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10543; 25985</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4870; 16108</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8224; 21886</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8385; 22269</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>25786; 46615</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10675; 25867</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18633; 39053</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8835</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10514</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5879</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4395</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2986</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13655</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8659</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7196</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11821</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>24169</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14538</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>11591</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4658; 13974</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5511; 16991</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2126; 12131</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1322; 10122</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>917; 7067</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7914; 20762</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4121; 14410</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3783; 12688</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6571; 18452</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16384; 34642</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8388; 23371</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6705; 18439</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11582</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>31516</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11050</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2944</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26975</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5320</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13596</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>14526</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>58492</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>16370</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>20839</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6548; 17973</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23061; 40392</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6066; 19008</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3430; 13154</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>900; 7241</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19368; 36182</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1338; 12763</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9376; 19017</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>8593; 22266</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>46879; 71654</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8882; 26143</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14929; 28472</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>32687</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>71311</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>32388</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>33070</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>15712</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>71646</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>27103</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>41588</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>48399</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>142957</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>59491</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>74658</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>24250; 44542</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>58173; 87817</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>22072; 43968</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>23136; 47135</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9594; 23310</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>56707; 86513</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17651; 39101</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>32488; 52725</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>37386; 61372</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>124316; 166554</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>46506; 75176</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>60643; 91146</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>